--- a/ekin.xlsx
+++ b/ekin.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\python\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develope\bot-ekin-sibon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DCDFAE7-3B7F-41D8-B847-D61D1DCE686A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631B7F47-C022-489E-9FBC-64E5E2ED69C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21270" yWindow="780" windowWidth="21600" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
   <si>
     <t>taggal</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>11-10-2022</t>
+  </si>
+  <si>
+    <t>xxxx</t>
+  </si>
+  <si>
+    <t>yyyy</t>
   </si>
 </sst>
 </file>
@@ -367,54 +373,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="20.5546875" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2">
-        <v>1940</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B3">
-        <v>122</v>
+        <v>1940</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -423,17 +423,31 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>123</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
         <v>4</v>
       </c>
     </row>

--- a/ekin.xlsx
+++ b/ekin.xlsx
@@ -1,48 +1,82 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develope\bot-ekin-sibon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631B7F47-C022-489E-9FBC-64E5E2ED69C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFFF433-DDA0-452F-AAEE-0BFF46BA97F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet-ekin" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="8">
-  <si>
-    <t>taggal</t>
-  </si>
-  <si>
-    <t>aktivitas</t>
-  </si>
-  <si>
-    <t>kegiatan</t>
-  </si>
-  <si>
-    <t>catatan</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="21">
+  <si>
+    <t>1-11-2022</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>11-10-2022</t>
+    <t>2-11-2022</t>
+  </si>
+  <si>
+    <t>3-11-2022</t>
+  </si>
+  <si>
+    <t>4-11-2022</t>
+  </si>
+  <si>
+    <t>5-11-2022</t>
+  </si>
+  <si>
+    <t>7-11-2022</t>
+  </si>
+  <si>
+    <t>8-11-2022</t>
+  </si>
+  <si>
+    <t>9-11-2022</t>
+  </si>
+  <si>
+    <t>10-11-2022</t>
+  </si>
+  <si>
+    <t>11-11-2022</t>
+  </si>
+  <si>
+    <t>12-11-2022</t>
+  </si>
+  <si>
+    <t>14-11-2022</t>
+  </si>
+  <si>
+    <t>15-11-2022</t>
+  </si>
+  <si>
+    <t>16-11-2022</t>
+  </si>
+  <si>
+    <t>17-11-2022</t>
+  </si>
+  <si>
+    <t>18-11-2022</t>
+  </si>
+  <si>
+    <t>19-11-2022</t>
+  </si>
+  <si>
+    <t>21-11-2022</t>
   </si>
   <si>
     <t>xxxx</t>
@@ -55,16 +89,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -90,15 +118,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -121,44 +148,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -188,12 +215,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -232,228 +259,982 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
+                <a:tint val="100000"/>
                 <a:shade val="100000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="20.5546875" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>122</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>123</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1940</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>122</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>123</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1940</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>122</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>123</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1940</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>122</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>123</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1940</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>1940</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>122</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>122</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>123</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>123</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>1940</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>122</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>123</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>1940</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>122</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>123</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1940</v>
+      </c>
+      <c r="D22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>122</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>123</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>1940</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>122</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>9</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>123</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1940</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>122</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>123</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1940</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>122</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>123</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1940</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>122</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>123</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>1940</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>122</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>123</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>13</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>1940</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>122</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>123</v>
+      </c>
+      <c r="D42" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>1940</v>
+      </c>
+      <c r="D43" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>15</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>122</v>
+      </c>
+      <c r="D44" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>123</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>1940</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>122</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>16</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>123</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>1940</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>122</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>123</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>17</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>1940</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>122</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>123</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>18</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>1940</v>
+      </c>
+      <c r="D55" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A2:D55 C1:D1" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>